--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="RegisterPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -41,13 +42,40 @@
   </si>
   <si>
     <t>akhildas</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Confirm password:</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Akhil1234</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +97,28 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,15 +126,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,4 +508,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -148,8 +148,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -158,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,39 +467,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="1" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -514,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -528,39 +537,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
@@ -568,36 +577,36 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
